--- a/T- and Chi2 test tables/top4_all_tw_means_by_binary_target.xlsx
+++ b/T- and Chi2 test tables/top4_all_tw_means_by_binary_target.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>variable</t>
   </si>
@@ -41,6 +41,21 @@
   </si>
   <si>
     <t>video_duration</t>
+  </si>
+  <si>
+    <t>asking_for_eng</t>
+  </si>
+  <si>
+    <t>raw_length</t>
+  </si>
+  <si>
+    <t>has_emoji</t>
+  </si>
+  <si>
+    <t>is_weekday</t>
+  </si>
+  <si>
+    <t>vid_dur_if_not_0</t>
   </si>
 </sst>
 </file>
@@ -398,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,6 +508,121 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0.0007762769756249029</v>
+      </c>
+      <c r="D5">
+        <v>0.003690036900369004</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.432</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>168.2342803912436</v>
+      </c>
+      <c r="D6">
+        <v>168.5867158671587</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.93</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.1297935103244838</v>
+      </c>
+      <c r="D7">
+        <v>0.1180811808118081</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0.8494022667287688</v>
+      </c>
+      <c r="D8">
+        <v>0.8228782287822878</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.263</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>72.37037831021438</v>
+      </c>
+      <c r="D9">
+        <v>68.60789610389611</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.511</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
